--- a/target.xlsx
+++ b/target.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5241" uniqueCount="2069">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156447" uniqueCount="2069">
   <si>
     <t>AssetTag</t>
   </si>
